--- a/ПСАД. Билеты к Экзамену.xlsx
+++ b/ПСАД. Билеты к Экзамену.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahod\Documents\CodeBlocks\MSU\8 semester\mmp_asda_spring_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C80BA99-6EA0-4D22-A60B-639DDF476B9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A61009-D590-4A44-BFA0-C9E5082D12C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,7 +609,7 @@
   <dimension ref="A2:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
